--- a/data/E Argentina Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 mensual, trimestral-listo, anual) FMI.xlsx
+++ b/data/E Argentina Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 mensual, trimestral-listo, anual) FMI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Lo que preparé para Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F28CD1-7C1F-9546-A5A1-B7CBCAA46694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E838C0-0F7F-4A4F-BF75-F3470003AEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27580" yWindow="-2180" windowWidth="27320" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="1" r:id="rId1"/>
@@ -1008,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1104,10 +1104,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1126,6 +1122,58 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1368,12 +1416,12 @@
     </row>
     <row r="2" spans="1:76" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1532,9 +1580,9 @@
     </row>
     <row r="4" spans="1:76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1610,11 +1658,11 @@
     </row>
     <row r="5" spans="1:76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1690,10 +1738,10 @@
     </row>
     <row r="6" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3002,16 +3050,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="31" width="8.33203125" customWidth="1"/>
     <col min="32" max="32" width="11.5" customWidth="1"/>
     <col min="33" max="35" width="14.1640625" customWidth="1"/>
@@ -3033,97 +3081,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="38" t="s">
         <v>153</v>
       </c>
       <c r="AF1" s="1"/>
@@ -3158,98 +3206,98 @@
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
     </row>
-    <row r="2" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="29">
         <v>12.2908378233841</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="30">
         <v>12.4954396205764</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="30">
         <v>12.4240546302584</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="30">
         <v>12.329330767982601</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="30">
         <v>12.098136997261699</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="30">
         <v>12.7137892576919</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="30">
         <v>13.1600188100536</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="30">
         <v>18.1530705711011</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="30">
         <v>20.568768719692802</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="30">
         <v>20.982659929834</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="30">
         <v>21.3559492370482</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="30">
         <v>21.374874977146401</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="30">
         <v>20.8954656839466</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="30">
         <v>23.097033979076301</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="30">
         <v>24.450015970241601</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="30">
         <v>26.488896737450901</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="30">
         <v>29.949609055831299</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="30">
         <v>40.509291818810901</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="30">
         <v>57.414572278877202</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="30">
         <v>52.293762995208702</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="30">
         <v>60.0418418754711</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="30">
         <v>58.889360016126403</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="30">
         <v>78.376466065266897</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="30">
         <v>82.679141597191204</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="30">
         <v>87.852066782310601</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="30">
         <v>96.793941436638903</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="30">
         <v>107.08826336280799</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2" s="30">
         <v>121.05456457083601</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2" s="30">
         <v>130.24136460070901</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AE2" s="30">
         <v>136.39462865913299</v>
       </c>
       <c r="AF2" s="1"/>
@@ -3284,98 +3332,98 @@
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
     </row>
-    <row r="3" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="31">
         <v>11.6830488888357</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="32">
         <v>12.3737168413556</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="32">
         <v>12.561781587571501</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="32">
         <v>12.4362852447272</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="32">
         <v>12.153119301404899</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="32">
         <v>12.4682521582427</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="32">
         <v>12.9018731486179</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="32">
         <v>14.1393724970096</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="32">
         <v>20.070897654262701</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="32">
         <v>20.0567846554301</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="32">
         <v>20.8631710292122</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="32">
         <v>21.04247349608</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="32">
         <v>21.219370802179998</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="32">
         <v>21.604027286854201</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="32">
         <v>24.356892620524</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="32">
         <v>24.773088210142198</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="32">
         <v>28.713362310013501</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="32">
         <v>33.5841542762942</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="32">
         <v>44.842257796193401</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="32">
         <v>51.349551237082999</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="32">
         <v>54.310251743771801</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="32">
         <v>60.7328317385711</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="32">
         <v>69.318214482992204</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="32">
         <v>81.539250009047507</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="32">
         <v>84.338523228198099</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="32">
         <v>92.510806329458902</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="32">
         <v>102.90791780290699</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="32">
         <v>113.88212671525</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="32">
         <v>127.096081406941</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="32">
         <v>134.84068953593501</v>
       </c>
       <c r="AF3" s="1"/>
@@ -3410,98 +3458,98 @@
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1"/>
     </row>
-    <row r="4" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="33">
         <v>7.952</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="34">
         <v>8.0830000000000002</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="34">
         <v>8.3800000000000008</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="34">
         <v>8.51</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="34">
         <v>8.77</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="34">
         <v>9.0399999999999991</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="34">
         <v>9.375</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="34">
         <v>13.1</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="34">
         <v>14.6</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="34">
         <v>15</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="34">
         <v>15.3</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="34">
         <v>15.9</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="34">
         <v>15.4</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="34">
         <v>16.600000000000001</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="34">
         <v>17.3</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="34">
         <v>18.600000000000001</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="34">
         <v>20.6</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="34">
         <v>28.8</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="34">
         <v>41.15</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="34">
         <v>37.6</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="34">
         <v>43.25</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="34">
         <v>42.36</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="34">
         <v>57.49</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="34">
         <v>59.79</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="34">
         <v>64.37</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="34">
         <v>70.36</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="34">
         <v>76.08</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="34">
         <v>84.05</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="34">
         <v>91.9</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="34">
         <v>95.62</v>
       </c>
       <c r="AF4" s="1"/>
@@ -3536,98 +3584,98 @@
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
     </row>
-    <row r="5" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="31">
         <v>7.5819207070707098</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="32">
         <v>8.0061916666666697</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="32">
         <v>8.2528391963109407</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="32">
         <v>8.4601524012050398</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="32">
         <v>8.6440203703333296</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="32">
         <v>8.9206953748006406</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="32">
         <v>9.2054772727272702</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="32">
         <v>10.1625490810359</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="32">
         <v>14.4395221386801</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="32">
         <v>14.2322619047619</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="32">
         <v>14.943257575757601</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="32">
         <v>15.417658730158699</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="32">
         <v>15.673148148148099</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="32">
         <v>15.7339417989418</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="32">
         <v>17.287081529581499</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="32">
         <v>17.5566562238931</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="32">
         <v>19.8367</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="32">
         <v>23.4936333333333</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="32">
         <v>32.024299999999997</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="32">
         <v>37.0253333333333</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="32">
         <v>39.002899999999997</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="32">
         <v>43.8569666666667</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="32">
         <v>50.444899999999997</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="32">
         <v>59.286799999999999</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="32">
         <v>61.396833333333298</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AA5" s="32">
         <v>67.578233333333301</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="32">
         <v>73.227033333333296</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="32">
         <v>79.954566666666693</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="32">
         <v>88.464533333333307</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="32">
         <v>93.974166666666704</v>
       </c>
       <c r="AF5" s="1"/>
@@ -3762,12 +3810,12 @@
     </row>
     <row r="2" spans="1:66" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3832,13 +3880,13 @@
     </row>
     <row r="3" spans="1:66" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="1"/>
@@ -3906,9 +3954,9 @@
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3974,11 +4022,11 @@
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4044,10 +4092,10 @@
     </row>
     <row r="6" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4182,11 +4230,11 @@
     </row>
     <row r="8" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="5" t="s">
         <v>161</v>
       </c>
